--- a/src/EngWordsMemo.xlsx
+++ b/src/EngWordsMemo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjasinsk\eclipse-workspace\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PawełJasiński\eclipse-workspace\memo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D89BCBB-0FAC-4205-90FC-1257801CEB03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B9843-2C5A-42A3-927B-E6B1D16EFA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>thus</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>ostatnio, niedawno</t>
+  </si>
+  <si>
+    <t>judiciously</t>
+  </si>
+  <si>
+    <t>rozsądnie</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,9 +693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,7 +733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -833,7 +839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -985,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,8 +2743,14 @@
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
       <c r="C103" t="s">
         <v>145</v>
+      </c>
+      <c r="D103" t="s">
+        <v>203</v>
       </c>
       <c r="F103">
         <v>0</v>

--- a/src/EngWordsMemo.xlsx
+++ b/src/EngWordsMemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PawełJasiński\eclipse-workspace\memo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B9843-2C5A-42A3-927B-E6B1D16EFA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A10701-5556-46B2-BEC5-5B4E52FBBAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="204">
   <si>
     <t>thus</t>
   </si>
@@ -989,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,17 +3240,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
-        <v>145</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
